--- a/full paleru data.xlsx
+++ b/full paleru data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Autumn 24-25\BTP\trail1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE824B34-05CB-4964-A865-C05DE6F9E2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE1B49F-80D5-48A4-8C2E-B96592C95ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,90 +338,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1830"/>
+  <dimension ref="A1:C1830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
-      <selection sqref="A1:A1830"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.99</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.98</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.97</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.95</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.94</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.93</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.92</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.89</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.88</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.87</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.85</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.84</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.82</v>
       </c>
